--- a/public/DefaultFile/DataSiswa.xlsx
+++ b/public/DefaultFile/DataSiswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIFKA.CO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759DC97F-B56D-4A0B-B336-DCD9BEA39BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A021B36D-527F-4272-B223-F98F5AEBF813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39466C66-1137-4346-8E7F-B0C276098B15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5DA9AC63-52A6-461F-9D2E-27840CC1BF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,46 +31,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Nisn</t>
+  </si>
+  <si>
+    <t>Nis</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Telp</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
   <si>
     <t>NamaKelas</t>
   </si>
   <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Nisn</t>
-  </si>
-  <si>
-    <t>Nis</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Telp</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF67748E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -82,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,9 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,56 +449,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5AB36-1B57-4C31-8A9B-966D22E2A069}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F951CD7-AE90-41B9-95A6-0DD36F59E598}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>